--- a/イベント情報_単体テスト.xlsx
+++ b/イベント情報_単体テスト.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/unit-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83D39B5D-9AC9-4B4E-A967-738444FDAEEA}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E014E0E0-8CEC-4F36-95A3-202454A6DDF4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="53">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -154,32 +154,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>「アカウント」ボタンを押下後、アカウント一覧画面に遷移</t>
-    <rPh sb="11" eb="13">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「アカウント一覧」</t>
-    <rPh sb="6" eb="8">
-      <t>イチラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -444,19 +418,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>1.イベント一覧画面からブログを選択する</t>
-    <rPh sb="6" eb="8">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2.イベント情報画面に遷移</t>
     <rPh sb="6" eb="8">
       <t>ジョウホウ</t>
@@ -474,6 +435,102 @@
     <rPh sb="2" eb="4">
       <t>サクジョ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.イベント一覧画面からイベントを選択する</t>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録された「開始日時」の表示</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>カイシビ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録された「終了日時」の表示</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ホスト名を変更する</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.イベント情報画面にアクセスする</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーが発生した場合、「エラーが発生したためイベント情報が取得できませんでした。」の表示</t>
+    <rPh sb="4" eb="6">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤字で「エラーが発生したためイベント情報が取得できませんでした。」</t>
+    <rPh sb="0" eb="2">
+      <t>アカジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルの表示</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>×</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -541,7 +598,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -560,9 +617,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -582,24 +636,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -694,6 +730,24 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -776,12 +830,12 @@
     <tableColumn id="1" xr3:uid="{FE3B6433-B2D2-49AE-8398-E424440CC4D9}" name="項目番号" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{94A9CBD6-F56A-491E-8DAF-ACBE970046E3}" name="大項目" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{5EB4462F-DEC7-4264-A286-C24EE28C496E}" name="列3" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{D450AE4F-D06A-4E15-B932-E3F510817622}" name="確認内容" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{ED3BCA59-A0DE-4B1B-9832-51565EA42EDC}" name="操作手順" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{E2B4F0B1-694C-4FD2-90CD-F4C8B987F173}" name="期待値" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{0CFA7919-BC40-4225-B0B7-8F6B54757F97}" name="実施日" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{2AD024B2-1EAC-46F1-AC76-089882A5C549}" name="実施結果" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{3AD576AB-891C-4DCF-B54E-D3B412910254}" name="備考" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{D450AE4F-D06A-4E15-B932-E3F510817622}" name="確認内容" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{ED3BCA59-A0DE-4B1B-9832-51565EA42EDC}" name="操作手順" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{E2B4F0B1-694C-4FD2-90CD-F4C8B987F173}" name="期待値" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{0CFA7919-BC40-4225-B0B7-8F6B54757F97}" name="実施日" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{2AD024B2-1EAC-46F1-AC76-089882A5C549}" name="実施結果" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{3AD576AB-891C-4DCF-B54E-D3B412910254}" name="備考" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1104,9 +1158,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="79" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E7" zoomScale="79" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -1131,7 +1185,7 @@
         <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1158,12 +1212,12 @@
         <v>16</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1204,19 +1258,19 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="3">
+        <v>46016</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="G8" s="4">
-        <v>45991</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -1226,7 +1280,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="4"/>
@@ -1242,19 +1296,19 @@
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="4">
-        <v>45991</v>
+        <v>45</v>
+      </c>
+      <c r="G10" s="3">
+        <v>46016</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -1264,7 +1318,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1272,7 +1326,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="6">
+      <c r="A12" s="2">
         <v>3</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1280,29 +1334,29 @@
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="4">
-        <v>45994</v>
+        <v>46</v>
+      </c>
+      <c r="G12" s="3">
+        <v>46016</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="6"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -1310,7 +1364,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="6">
+      <c r="A14" s="2">
         <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1318,29 +1372,29 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="4">
-        <v>45994</v>
+        <v>22</v>
+      </c>
+      <c r="G14" s="3">
+        <v>46016</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="6"/>
+      <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1348,7 +1402,7 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="6">
+      <c r="A16" s="2">
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -1356,29 +1410,29 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="4">
-        <v>45994</v>
+        <v>32</v>
+      </c>
+      <c r="G16" s="3">
+        <v>46016</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="6"/>
+      <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -1386,7 +1440,7 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="6">
+      <c r="A18" s="2">
         <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1394,29 +1448,29 @@
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="4">
-        <v>45994</v>
+        <v>28</v>
+      </c>
+      <c r="G18" s="3">
+        <v>46016</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="6"/>
+      <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1424,7 +1478,7 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="6">
+      <c r="A20" s="2">
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -1432,29 +1486,29 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="4">
-        <v>45994</v>
+        <v>29</v>
+      </c>
+      <c r="G20" s="3">
+        <v>46016</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="6"/>
+      <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="4"/>
@@ -1462,7 +1516,7 @@
       <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="6">
+      <c r="A22" s="2">
         <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -1470,29 +1524,29 @@
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="4">
-        <v>45994</v>
+        <v>30</v>
+      </c>
+      <c r="G22" s="3">
+        <v>46016</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="6"/>
+      <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="4"/>
@@ -1500,7 +1554,7 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="6">
+      <c r="A24" s="2">
         <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -1508,29 +1562,29 @@
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="4">
-        <v>45994</v>
+        <v>31</v>
+      </c>
+      <c r="G24" s="3">
+        <v>46016</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="6"/>
+      <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1546,19 +1600,19 @@
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="4">
-        <v>45994</v>
+        <v>23</v>
+      </c>
+      <c r="G26" s="3">
+        <v>46016</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I26" s="2"/>
     </row>
@@ -1568,7 +1622,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -1584,19 +1638,19 @@
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G28" s="4">
-        <v>45994</v>
+        <v>35</v>
+      </c>
+      <c r="G28" s="3">
+        <v>46016</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I28" s="2"/>
     </row>
@@ -1606,7 +1660,7 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -1622,19 +1676,19 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" s="4">
-        <v>45994</v>
+        <v>36</v>
+      </c>
+      <c r="G30" s="3">
+        <v>46016</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I30" s="2"/>
     </row>
@@ -1644,7 +1698,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -1660,19 +1714,19 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>44</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G32" s="4">
-        <v>45994</v>
+        <v>38</v>
+      </c>
+      <c r="G32" s="3">
+        <v>46016</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I32" s="2"/>
     </row>
@@ -1682,7 +1736,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -1694,23 +1748,23 @@
         <v>14</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" s="4">
-        <v>45994</v>
+        <v>19</v>
+      </c>
+      <c r="G34" s="3">
+        <v>46016</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I34" s="2"/>
     </row>
@@ -1734,19 +1788,19 @@
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G36" s="4">
-        <v>45994</v>
+        <v>40</v>
+      </c>
+      <c r="G36" s="3">
+        <v>46016</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I36" s="2"/>
     </row>
@@ -1760,6 +1814,44 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="2">
+        <v>16</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" s="3">
+        <v>46016</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
